--- a/biology/Zoologie/Hans_Fruhstorfer/Hans_Fruhstorfer.xlsx
+++ b/biology/Zoologie/Hans_Fruhstorfer/Hans_Fruhstorfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Fruhstorfer, né le 7 mars 1866 à Heinersdorf à Passau et mort le 9 avril 1922 à Munich, est un entomologiste allemand spécialiste des lépidoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet explorateur, collectionneur, et commerçant d'insectes, est un entomologiste amateur spécialisé dans les  lépidoptères.
 Sa première expédition, au Brésil, débute en 1888 et dure deux ans. Ensuite, il se rend à Java et y reste trois ans.
@@ -543,15 +557,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est surtout connu pour son travail sur les papillons de Java[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est surtout connu pour son travail sur les papillons de Java.
 Il a décrit de nombreux papillons non européens dans Seitz Macrolepidoptera.
-Quelques publications
-Verzeichnis der von mir in Tonkin, Annam und Siam gesammelten Nymphaliden und Besprechung verwandter Formen, Wien. ent. Ztg 25:307-362, (1906)
-Familie Pieridae in Seitz' Großschmetterlinge der Erde 9:119-190, Alfred Kernen, Stuttgart. (1910)
-Familie Lycaenidae in Seitz' Großschmetterlinge der Erde 9:803-901, (part) Alfred Kernen, Stuttgart. (1915-1924)
-Die Orthopteren der Schweiz und der Nachbarländer auf geographischer wie ökologischer Grundlage mit Berücksichtigung der fossilen Arten, Archiv für Naturgeschichte, 87 (4-6): 1-262. (1921)</t>
+</t>
         </is>
       </c>
     </row>
@@ -576,12 +588,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Verzeichnis der von mir in Tonkin, Annam und Siam gesammelten Nymphaliden und Besprechung verwandter Formen, Wien. ent. Ztg 25:307-362, (1906)
+Familie Pieridae in Seitz' Großschmetterlinge der Erde 9:119-190, Alfred Kernen, Stuttgart. (1910)
+Familie Lycaenidae in Seitz' Großschmetterlinge der Erde 9:803-901, (part) Alfred Kernen, Stuttgart. (1915-1924)
+Die Orthopteren der Schweiz und der Nachbarländer auf geographischer wie ökologischer Grundlage mit Berücksichtigung der fossilen Arten, Archiv für Naturgeschichte, 87 (4-6): 1-262. (1921)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hans_Fruhstorfer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Fruhstorfer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses collections sont au musée d'histoire naturelle de Berlin, au Muséum national d'histoire naturelle à Paris[2] et au musée d'histoire naturelle de Londres.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses collections sont au musée d'histoire naturelle de Berlin, au Muséum national d'histoire naturelle à Paris et au musée d'histoire naturelle de Londres.
 </t>
         </is>
       </c>
